--- a/biology/Origine et évolution du vivant/Monogénisme/Monogénisme.xlsx
+++ b/biology/Origine et évolution du vivant/Monogénisme/Monogénisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monog%C3%A9nisme</t>
+          <t>Monogénisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monogénisme ou monocentrisme est la théorie ancienne selon laquelle tous les hommes et femmes dériveraient d'un type, d'une population, voire d'un couple unique. 
 La théorie opposée est le polygénisme.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monog%C3%A9nisme</t>
+          <t>Monogénisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Christianisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monogénisme (position officielle du vatican via l'encyclique Humani Generis (1950), a été la position des chrétiens, en tant que conséquence de la croyance adamiste, selon laquelle tous les êtres humains descendent du même couple Adam et Ève. 
-Le monogénisme a été remis en cause à partir du moment où le Français Isaac La Peyrère a mis en évidence des difficultés à ce que dit saint Paul dans l'épître aux Romains sur le commencement de l'imputation du péché d'Adam[1].
+Le monogénisme a été remis en cause à partir du moment où le Français Isaac La Peyrère a mis en évidence des difficultés à ce que dit saint Paul dans l'épître aux Romains sur le commencement de l'imputation du péché d'Adam.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monog%C3%A9nisme</t>
+          <t>Monogénisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Darwin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie de l'évolution des espèces, avec Darwin, finit par imposer le monogénisme. 
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monog%C3%A9nisme</t>
+          <t>Monogénisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Langues</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Par extension, ce terme est employé aussi pour désigner les théories sur l'origine unique des langues.
 </t>
